--- a/selenium_logs/xlsx_files/111.xlsx
+++ b/selenium_logs/xlsx_files/111.xlsx
@@ -660,7 +660,7 @@
           <t>admin123</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>test passed</t>
         </is>
@@ -675,6 +675,11 @@
       <c r="B5" s="1" t="inlineStr">
         <is>
           <t>admin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Test failed</t>
         </is>
       </c>
     </row>

--- a/selenium_logs/xlsx_files/111.xlsx
+++ b/selenium_logs/xlsx_files/111.xlsx
@@ -677,7 +677,7 @@
           <t>admin</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>Test failed</t>
         </is>
